--- a/judge.xlsx
+++ b/judge.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinyi Chen\Desktop\薪酬统计报告\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\salary_count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A161B5DB-F17F-4E24-A99E-7948D3E26022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8072C75F-A658-489E-A44D-3D97C7B6B8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/judge.xlsx
+++ b/judge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\salary_count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8072C75F-A658-489E-A44D-3D97C7B6B8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FEDE30-348D-4300-923E-22D1E158761C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="535">
   <si>
     <t>problem_id</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>彭海航-1 李⻓葳-51 李啸-101 祝有朋-162</t>
-  </si>
-  <si>
-    <t>孙林-251</t>
   </si>
   <si>
     <t>F</t>
@@ -1616,9 +1613,6 @@
     <t>殷铭-1436 王梓禾-1720</t>
   </si>
   <si>
-    <t>祝有朋-1311 李⻓葳-1939 左宇翔-2067</t>
-  </si>
-  <si>
     <t>题目解析对不上，这个是不是录错解析了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1626,130 +1620,151 @@
     <t>殷铭-1433 马誉中-1583 黄华基-1840</t>
   </si>
   <si>
+    <t>解析给出的答案是不是少了一个负号？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷铭-1437 王梓禾-1717</t>
+  </si>
+  <si>
+    <t>祝有朋-1313 谢书宏-1768 李⻓葳-1966</t>
+  </si>
+  <si>
+    <t>这个题干是at，解析里偷换成a^t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝有朋-1321 马誉中-1545 王梓禾-1709 李⻓葳-2050</t>
+  </si>
+  <si>
+    <t>谢书宏-1806</t>
+  </si>
+  <si>
+    <t>补充了正确答案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝有朋-1325 马誉中-1506 王梓禾-1706 李⻓葳-2052</t>
+  </si>
+  <si>
+    <t>谢书宏-1762</t>
+  </si>
+  <si>
+    <t>直接换一道题</t>
+  </si>
+  <si>
+    <t>马誉中-1508 黄华基-1852 李⻓葳-2053</t>
+  </si>
+  <si>
+    <t>祝有朋-1326 王梓禾-1718</t>
+  </si>
+  <si>
+    <t>解析录错了，邓直接换了一题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马誉中-1571 李⻓葳-1875 王祎琨-2097</t>
+  </si>
+  <si>
+    <t>祝有朋-1328 谢书宏-1750</t>
+  </si>
+  <si>
+    <t>与题目给出的三角形区域D没有任何几何关联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝有朋-1363 马誉中-1577 李⻓葳-1899 王祎琨-2110</t>
+  </si>
+  <si>
+    <t>谢书宏-1748</t>
+  </si>
+  <si>
+    <t>AI生成的，省略了我原本写的论证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝有朋-1329 马誉中-1563 李⻓葳-1872 王祎琨-2098</t>
+  </si>
+  <si>
+    <t>谢书宏-1733</t>
+  </si>
+  <si>
+    <t>主要错在三处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝有朋-1338 马誉中-1544 邓学飞-1642 李⻓葳-1940</t>
+  </si>
+  <si>
+    <t>左宇翔-2068</t>
+  </si>
+  <si>
+    <t>解析里已经描述的很清晰了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝有朋-1340 马誉中-1511 谢书宏-1813 李⻓葳-2060</t>
+  </si>
+  <si>
+    <t>邓学飞-1700</t>
+  </si>
+  <si>
+    <t>这个修改建议是不对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝有朋-1362 邓学飞-1602 王祎琨-2115</t>
+  </si>
+  <si>
+    <t>王梓禾-1712 谢书宏-1789</t>
+  </si>
+  <si>
+    <t>改严谨一些</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝有朋-1356 马誉中-1522 邓学飞-1693 李⻓葳-2065</t>
+  </si>
+  <si>
+    <t>谢书宏-1808</t>
+  </si>
+  <si>
+    <t>严谨性判了正确性错误，细看了一下应该不是大问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝有朋-1359 马誉中-1529 邓学飞-1653 李⻓葳-2064</t>
+  </si>
+  <si>
+    <t>谢书宏-1770</t>
+  </si>
+  <si>
+    <t>真正需要补严谨的是：为什么“每行全相等（全 1 或全 a）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙林-251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>祝有朋-1312 左宇翔-2072</t>
-  </si>
-  <si>
-    <t>解析给出的答案是不是少了一个负号？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>殷铭-1437 王梓禾-1717</t>
-  </si>
-  <si>
-    <t>祝有朋-1313 谢书宏-1768 李⻓葳-1966</t>
-  </si>
-  <si>
-    <t>这个题干是at，解析里偷换成a^t</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝有朋-1321 马誉中-1545 王梓禾-1709 李⻓葳-2050</t>
-  </si>
-  <si>
-    <t>谢书宏-1806</t>
-  </si>
-  <si>
-    <t>补充了正确答案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝有朋-1325 马誉中-1506 王梓禾-1706 李⻓葳-2052</t>
-  </si>
-  <si>
-    <t>谢书宏-1762</t>
-  </si>
-  <si>
-    <t>直接换一道题</t>
-  </si>
-  <si>
-    <t>马誉中-1508 黄华基-1852 李⻓葳-2053</t>
-  </si>
-  <si>
-    <t>祝有朋-1326 王梓禾-1718</t>
-  </si>
-  <si>
-    <t>解析录错了，邓直接换了一题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>马誉中-1571 李⻓葳-1875 王祎琨-2097</t>
-  </si>
-  <si>
-    <t>祝有朋-1328 谢书宏-1750</t>
-  </si>
-  <si>
-    <t>与题目给出的三角形区域D没有任何几何关联</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝有朋-1363 马誉中-1577 李⻓葳-1899 王祎琨-2110</t>
-  </si>
-  <si>
-    <t>谢书宏-1748</t>
-  </si>
-  <si>
-    <t>AI生成的，省略了我原本写的论证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝有朋-1329 马誉中-1563 李⻓葳-1872 王祎琨-2098</t>
-  </si>
-  <si>
-    <t>谢书宏-1733</t>
-  </si>
-  <si>
-    <t>主要错在三处</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝有朋-1338 马誉中-1544 邓学飞-1642 李⻓葳-1940</t>
-  </si>
-  <si>
-    <t>左宇翔-2068</t>
-  </si>
-  <si>
-    <t>解析里已经描述的很清晰了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝有朋-1340 马誉中-1511 谢书宏-1813 李⻓葳-2060</t>
-  </si>
-  <si>
-    <t>邓学飞-1700</t>
-  </si>
-  <si>
-    <t>这个修改建议是不对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝有朋-1362 邓学飞-1602 王祎琨-2115</t>
-  </si>
-  <si>
-    <t>王梓禾-1712 谢书宏-1789</t>
-  </si>
-  <si>
-    <t>改严谨一些</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝有朋-1356 马誉中-1522 邓学飞-1693 李⻓葳-2065</t>
-  </si>
-  <si>
-    <t>谢书宏-1808</t>
-  </si>
-  <si>
-    <t>严谨性判了正确性错误，细看了一下应该不是大问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝有朋-1359 马誉中-1529 邓学飞-1653 李⻓葳-2064</t>
-  </si>
-  <si>
-    <t>谢书宏-1770</t>
-  </si>
-  <si>
-    <t>真正需要补严谨的是：为什么“每行全相等（全 1 或全 a）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左宇翔-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左宇翔-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左宇翔-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝有朋-1311 李⻓葳-1939 左宇翔-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2146,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B135" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2224,10 +2239,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="1">
         <v>45</v>
@@ -2262,16 +2277,16 @@
         <v>214</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1">
         <v>45</v>
@@ -2306,13 +2321,13 @@
         <v>215</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1">
         <v>45</v>
@@ -2347,16 +2362,16 @@
         <v>223</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1">
         <v>45</v>
@@ -2391,16 +2406,16 @@
         <v>224</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1">
         <v>45</v>
@@ -2435,16 +2450,16 @@
         <v>225</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1">
         <v>45</v>
@@ -2479,16 +2494,16 @@
         <v>226</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="I8" s="1">
         <v>45</v>
@@ -2523,13 +2538,13 @@
         <v>233</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1">
         <v>45</v>
@@ -2564,13 +2579,13 @@
         <v>234</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1">
         <v>45</v>
@@ -2605,16 +2620,16 @@
         <v>235</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1">
         <v>45</v>
@@ -2649,16 +2664,16 @@
         <v>236</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1">
         <v>45</v>
@@ -2693,16 +2708,16 @@
         <v>237</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="1">
         <v>45</v>
@@ -2737,16 +2752,16 @@
         <v>238</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1">
         <v>45</v>
@@ -2781,18 +2796,18 @@
         <v>239</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="I15" s="1">
         <v>45</v>
@@ -2827,16 +2842,16 @@
         <v>247</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="1">
         <v>45</v>
@@ -2871,16 +2886,16 @@
         <v>250</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="1">
         <v>45</v>
@@ -2915,16 +2930,16 @@
         <v>251</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1">
         <v>45</v>
@@ -2959,16 +2974,16 @@
         <v>252</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="1">
         <v>45</v>
@@ -3003,16 +3018,16 @@
         <v>254</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="1">
         <v>45</v>
@@ -3047,16 +3062,16 @@
         <v>255</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="1">
         <v>45</v>
@@ -3091,16 +3106,16 @@
         <v>256</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="1">
         <v>45</v>
@@ -3135,16 +3150,16 @@
         <v>258</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="G23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="1">
         <v>45</v>
@@ -3179,16 +3194,16 @@
         <v>261</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I24" s="1">
         <v>45</v>
@@ -3223,18 +3238,18 @@
         <v>265</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="I25" s="1">
         <v>45</v>
@@ -3269,16 +3284,16 @@
         <v>266</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="1">
         <v>45</v>
@@ -3305,7 +3320,7 @@
         <v>5</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="56" x14ac:dyDescent="0.3">
@@ -3316,16 +3331,16 @@
         <v>267</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I27" s="1">
         <v>45</v>
@@ -3352,7 +3367,7 @@
         <v>5</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="28" x14ac:dyDescent="0.3">
@@ -3363,16 +3378,16 @@
         <v>268</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="G28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="1">
         <v>45</v>
@@ -3399,7 +3414,7 @@
         <v>5</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="28" x14ac:dyDescent="0.3">
@@ -3410,16 +3425,16 @@
         <v>269</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="G29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="1">
         <v>45</v>
@@ -3446,7 +3461,7 @@
         <v>5</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,16 +3472,16 @@
         <v>270</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="G30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I30" s="1">
         <v>45</v>
@@ -3493,7 +3508,7 @@
         <v>5</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,16 +3519,16 @@
         <v>272</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I31" s="1">
         <v>45</v>
@@ -3540,7 +3555,7 @@
         <v>5</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,16 +3566,16 @@
         <v>273</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I32" s="1">
         <v>45</v>
@@ -3587,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,16 +3613,16 @@
         <v>274</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I33" s="1">
         <v>45</v>
@@ -3634,7 +3649,7 @@
         <v>5</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="84" x14ac:dyDescent="0.3">
@@ -3645,16 +3660,16 @@
         <v>277</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="G34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I34" s="1">
         <v>45</v>
@@ -3681,7 +3696,7 @@
         <v>5</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="42" x14ac:dyDescent="0.3">
@@ -3692,16 +3707,16 @@
         <v>278</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="G35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" s="1">
         <v>45</v>
@@ -3728,7 +3743,7 @@
         <v>5</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,16 +3754,16 @@
         <v>278</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="G36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I36" s="1">
         <v>45</v>
@@ -3775,7 +3790,7 @@
         <v>5</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="140" x14ac:dyDescent="0.3">
@@ -3786,16 +3801,16 @@
         <v>280</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="G37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" s="1">
         <v>45</v>
@@ -3822,7 +3837,7 @@
         <v>5</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3848,13 @@
         <v>281</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I38" s="1">
         <v>45</v>
@@ -3866,7 +3881,7 @@
         <v>5</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3892,13 @@
         <v>282</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I39" s="1">
         <v>45</v>
@@ -3910,7 +3925,7 @@
         <v>5</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="56" x14ac:dyDescent="0.3">
@@ -3921,16 +3936,16 @@
         <v>283</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="G40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I40" s="1">
         <v>45</v>
@@ -3957,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="56" x14ac:dyDescent="0.3">
@@ -3968,16 +3983,16 @@
         <v>284</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="G41" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I41" s="1">
         <v>45</v>
@@ -4004,7 +4019,7 @@
         <v>5</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="112" x14ac:dyDescent="0.3">
@@ -4015,16 +4030,16 @@
         <v>285</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="G42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="H42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I42" s="1">
         <v>45</v>
@@ -4051,7 +4066,7 @@
         <v>5</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,16 +4077,16 @@
         <v>286</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="G43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I43" s="1">
         <v>45</v>
@@ -4098,7 +4113,7 @@
         <v>5</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="42" x14ac:dyDescent="0.3">
@@ -4109,16 +4124,16 @@
         <v>287</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="G44" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I44" s="1">
         <v>45</v>
@@ -4145,7 +4160,7 @@
         <v>5</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,16 +4171,16 @@
         <v>288</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="H45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I45" s="1">
         <v>45</v>
@@ -4192,7 +4207,7 @@
         <v>5</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="28" x14ac:dyDescent="0.3">
@@ -4203,16 +4218,16 @@
         <v>289</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="G46" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I46" s="1">
         <v>45</v>
@@ -4239,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,18 +4265,18 @@
         <v>291</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="I47" s="1">
         <v>45</v>
@@ -4288,7 +4303,7 @@
         <v>5</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4314,13 @@
         <v>293</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I48" s="1">
         <v>45</v>
@@ -4340,16 +4355,16 @@
         <v>296</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I49" s="1">
         <v>45</v>
@@ -4384,13 +4399,13 @@
         <v>297</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I50" s="1">
         <v>45</v>
@@ -4425,16 +4440,16 @@
         <v>298</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="G51" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="1">
         <v>45</v>
@@ -4469,16 +4484,16 @@
         <v>299</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I52" s="1">
         <v>45</v>
@@ -4513,16 +4528,16 @@
         <v>301</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="G53" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I53" s="1">
         <v>45</v>
@@ -4557,13 +4572,13 @@
         <v>302</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I54" s="1">
         <v>45</v>
@@ -4598,16 +4613,16 @@
         <v>304</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="G55" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="H55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I55" s="1">
         <v>45</v>
@@ -4642,16 +4657,16 @@
         <v>305</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="G56" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I56" s="1">
         <v>45</v>
@@ -4686,16 +4701,16 @@
         <v>306</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="G57" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I57" s="1">
         <v>45</v>
@@ -4730,13 +4745,13 @@
         <v>307</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I58" s="1">
         <v>45</v>
@@ -4771,13 +4786,13 @@
         <v>308</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I59" s="1">
         <v>45</v>
@@ -4812,16 +4827,16 @@
         <v>309</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="G60" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I60" s="1">
         <v>45</v>
@@ -4856,16 +4871,16 @@
         <v>310</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="G61" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I61" s="1">
         <v>45</v>
@@ -4900,13 +4915,13 @@
         <v>311</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I62" s="1">
         <v>45</v>
@@ -4941,16 +4956,16 @@
         <v>312</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="G63" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I63" s="1">
         <v>45</v>
@@ -4985,16 +5000,16 @@
         <v>313</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="G64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I64" s="1">
         <v>45</v>
@@ -5029,16 +5044,16 @@
         <v>315</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="G65" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I65" s="1">
         <v>45</v>
@@ -5073,16 +5088,16 @@
         <v>316</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="G66" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I66" s="1">
         <v>45</v>
@@ -5118,15 +5133,15 @@
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="I67" s="1">
         <v>50</v>
@@ -5145,9 +5160,8 @@
         <f t="shared" ref="M67:M130" si="4">O67-J67</f>
         <v>0</v>
       </c>
-      <c r="N67" s="4" t="e">
-        <f>L67/M67</f>
-        <v>#DIV/0!</v>
+      <c r="N67" s="4">
+        <v>0</v>
       </c>
       <c r="O67" s="1">
         <v>5</v>
@@ -5161,16 +5175,16 @@
         <v>319</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="G68" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I68" s="1">
         <v>45</v>
@@ -5205,13 +5219,13 @@
         <v>324</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="H69" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I69" s="1">
         <v>45</v>
@@ -5246,16 +5260,16 @@
         <v>325</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="G70" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I70" s="1">
         <v>45</v>
@@ -5290,13 +5304,13 @@
         <v>326</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="H71" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="I71" s="1">
         <v>45</v>
@@ -5331,13 +5345,13 @@
         <v>327</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="H72" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I72" s="1">
         <v>45</v>
@@ -5372,13 +5386,13 @@
         <v>333</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I73" s="1">
         <v>45</v>
@@ -5413,13 +5427,13 @@
         <v>337</v>
       </c>
       <c r="C74" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="H74" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I74" s="1">
         <v>45</v>
@@ -5454,13 +5468,13 @@
         <v>339</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="H75" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I75" s="1">
         <v>45</v>
@@ -5495,13 +5509,13 @@
         <v>342</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I76" s="1">
         <v>45</v>
@@ -5536,13 +5550,13 @@
         <v>348</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="H77" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I77" s="1">
         <v>45</v>
@@ -5577,13 +5591,13 @@
         <v>349</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="H78" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I78" s="1">
         <v>45</v>
@@ -5618,13 +5632,13 @@
         <v>354</v>
       </c>
       <c r="C79" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="H79" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I79" s="1">
         <v>45</v>
@@ -5659,16 +5673,16 @@
         <v>359</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="G80" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I80" s="1">
         <v>45</v>
@@ -5703,13 +5717,13 @@
         <v>361</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="H81" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I81" s="1">
         <v>45</v>
@@ -5744,13 +5758,13 @@
         <v>365</v>
       </c>
       <c r="C82" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="H82" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I82" s="1">
         <v>45</v>
@@ -5785,13 +5799,13 @@
         <v>366</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="H83" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I83" s="1">
         <v>45</v>
@@ -5826,16 +5840,16 @@
         <v>368</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="G84" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="H84" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I84" s="1">
         <v>45</v>
@@ -5870,16 +5884,16 @@
         <v>370</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="G85" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I85" s="1">
         <v>45</v>
@@ -5914,13 +5928,13 @@
         <v>373</v>
       </c>
       <c r="C86" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="H86" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I86" s="1">
         <v>45</v>
@@ -5955,13 +5969,13 @@
         <v>377</v>
       </c>
       <c r="C87" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="H87" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I87" s="1">
         <v>45</v>
@@ -5996,16 +6010,16 @@
         <v>381</v>
       </c>
       <c r="C88" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="G88" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I88" s="1">
         <v>45</v>
@@ -6040,16 +6054,16 @@
         <v>382</v>
       </c>
       <c r="C89" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I89" s="1">
         <v>45</v>
@@ -6084,13 +6098,13 @@
         <v>383</v>
       </c>
       <c r="C90" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="H90" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I90" s="1">
         <v>45</v>
@@ -6125,13 +6139,13 @@
         <v>385</v>
       </c>
       <c r="C91" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="H91" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I91" s="1">
         <v>45</v>
@@ -6166,13 +6180,13 @@
         <v>391</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="H92" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I92" s="1">
         <v>45</v>
@@ -6207,16 +6221,16 @@
         <v>394</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="G93" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I93" s="1">
         <v>45</v>
@@ -6251,13 +6265,13 @@
         <v>395</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="H94" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I94" s="1">
         <v>45</v>
@@ -6293,13 +6307,13 @@
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="H95" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I95" s="1">
         <v>50</v>
@@ -6318,9 +6332,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N95" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="N95" s="4">
+        <v>0</v>
       </c>
       <c r="O95" s="1">
         <v>4</v>
@@ -6334,16 +6347,16 @@
         <v>398</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="H96" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I96" s="1">
         <v>45</v>
@@ -6351,9 +6364,8 @@
       <c r="J96" s="1">
         <v>0</v>
       </c>
-      <c r="K96" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="K96" s="1">
+        <v>0</v>
       </c>
       <c r="L96" s="1">
         <v>5</v>
@@ -6378,16 +6390,16 @@
         <v>400</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="G97" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="H97" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I97" s="1">
         <v>45</v>
@@ -6422,16 +6434,16 @@
         <v>401</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="G98" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="H98" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I98" s="1">
         <v>45</v>
@@ -6466,16 +6478,16 @@
         <v>403</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="G99" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="H99" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I99" s="1">
         <v>45</v>
@@ -6510,16 +6522,16 @@
         <v>404</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="G100" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="H100" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I100" s="1">
         <v>45</v>
@@ -6554,16 +6566,16 @@
         <v>405</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="G101" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="H101" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I101" s="1">
         <v>45</v>
@@ -6598,16 +6610,16 @@
         <v>406</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="G102" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="H102" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I102" s="1">
         <v>45</v>
@@ -6642,16 +6654,16 @@
         <v>407</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="G103" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="H103" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I103" s="1">
         <v>45</v>
@@ -6686,16 +6698,16 @@
         <v>408</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="G104" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="H104" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I104" s="1">
         <v>45</v>
@@ -6730,16 +6742,16 @@
         <v>410</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="G105" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="H105" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I105" s="1">
         <v>45</v>
@@ -6774,16 +6786,16 @@
         <v>411</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="G106" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="H106" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I106" s="1">
         <v>45</v>
@@ -6818,16 +6830,16 @@
         <v>412</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="G107" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="H107" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I107" s="1">
         <v>45</v>
@@ -6862,16 +6874,16 @@
         <v>413</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="G108" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="H108" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I108" s="1">
         <v>45</v>
@@ -6906,16 +6918,16 @@
         <v>414</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="G109" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="H109" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I109" s="1">
         <v>45</v>
@@ -6950,16 +6962,16 @@
         <v>416</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="G110" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="H110" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I110" s="1">
         <v>45</v>
@@ -6994,16 +7006,16 @@
         <v>418</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="H111" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I111" s="1">
         <v>45</v>
@@ -7034,16 +7046,16 @@
         <v>419</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="G112" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="H112" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I112" s="1">
         <v>45</v>
@@ -7078,16 +7090,16 @@
         <v>420</v>
       </c>
       <c r="C113" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="G113" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="H113" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I113" s="1">
         <v>50</v>
@@ -7119,16 +7131,16 @@
         <v>421</v>
       </c>
       <c r="C114" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="G114" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I114" s="1">
         <v>45</v>
@@ -7163,16 +7175,16 @@
         <v>422</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="H115" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I115" s="1">
         <v>45</v>
@@ -7203,16 +7215,16 @@
         <v>423</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="G116" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="H116" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I116" s="1">
         <v>45</v>
@@ -7247,16 +7259,16 @@
         <v>424</v>
       </c>
       <c r="C117" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="G117" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I117" s="1">
         <v>45</v>
@@ -7291,16 +7303,16 @@
         <v>425</v>
       </c>
       <c r="C118" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="G118" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I118" s="1">
         <v>45</v>
@@ -7335,16 +7347,16 @@
         <v>428</v>
       </c>
       <c r="C119" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="G119" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I119" s="1">
         <v>45</v>
@@ -7379,16 +7391,16 @@
         <v>430</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="G120" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="H120" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I120" s="1">
         <v>45</v>
@@ -7423,16 +7435,16 @@
         <v>431</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="G121" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="H121" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I121" s="1">
         <v>45</v>
@@ -7467,16 +7479,16 @@
         <v>432</v>
       </c>
       <c r="C122" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="G122" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="H122" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I122" s="1">
         <v>45</v>
@@ -7511,16 +7523,16 @@
         <v>433</v>
       </c>
       <c r="C123" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="G123" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I123" s="1">
         <v>45</v>
@@ -7555,16 +7567,16 @@
         <v>434</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="G124" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="H124" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I124" s="1">
         <v>45</v>
@@ -7599,16 +7611,16 @@
         <v>435</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="G125" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="H125" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I125" s="1">
         <v>45</v>
@@ -7643,16 +7655,16 @@
         <v>436</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="G126" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="H126" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I126" s="1">
         <v>45</v>
@@ -7687,16 +7699,16 @@
         <v>440</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="G127" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="H127" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I127" s="1">
         <v>45</v>
@@ -7731,16 +7743,16 @@
         <v>441</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="G128" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="H128" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I128" s="1">
         <v>45</v>
@@ -7775,16 +7787,16 @@
         <v>442</v>
       </c>
       <c r="C129" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="G129" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="H129" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I129" s="1">
         <v>45</v>
@@ -7819,16 +7831,16 @@
         <v>443</v>
       </c>
       <c r="C130" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="G130" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I130" s="1">
         <v>45</v>
@@ -7863,16 +7875,16 @@
         <v>450</v>
       </c>
       <c r="C131" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="G131" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I131" s="1">
         <v>45</v>
@@ -7907,16 +7919,16 @@
         <v>470</v>
       </c>
       <c r="C132" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="G132" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I132" s="1">
         <v>45</v>
@@ -7951,16 +7963,16 @@
         <v>473</v>
       </c>
       <c r="C133" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="G133" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I133" s="1">
         <v>45</v>
@@ -7995,16 +8007,16 @@
         <v>475</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="G134" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="H134" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I134" s="1">
         <v>45</v>
@@ -8039,16 +8051,16 @@
         <v>476</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="G135" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="H135" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I135" s="1">
         <v>45</v>
@@ -8083,16 +8095,16 @@
         <v>477</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="G136" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="H136" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I136" s="1">
         <v>45</v>
@@ -8127,16 +8139,16 @@
         <v>478</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="G137" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G137" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="H137" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I137" s="1">
         <v>45</v>
@@ -8171,16 +8183,16 @@
         <v>479</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="G138" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="H138" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I138" s="1">
         <v>45</v>
@@ -8215,16 +8227,16 @@
         <v>480</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="G139" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="H139" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I139" s="1">
         <v>45</v>
@@ -8259,16 +8271,16 @@
         <v>481</v>
       </c>
       <c r="C140" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="G140" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="H140" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I140" s="1">
         <v>45</v>
@@ -8303,16 +8315,16 @@
         <v>482</v>
       </c>
       <c r="C141" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="G141" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="H141" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I141" s="1">
         <v>45</v>
@@ -8347,16 +8359,16 @@
         <v>483</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="G142" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="H142" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I142" s="1">
         <v>45</v>
@@ -8391,16 +8403,16 @@
         <v>484</v>
       </c>
       <c r="C143" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="G143" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="H143" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I143" s="1">
         <v>45</v>
@@ -8435,16 +8447,16 @@
         <v>485</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="G144" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="H144" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I144" s="1">
         <v>45</v>
@@ -8479,16 +8491,16 @@
         <v>486</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="G145" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="H145" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I145" s="1">
         <v>45</v>
@@ -8523,16 +8535,16 @@
         <v>487</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="G146" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="H146" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I146" s="1">
         <v>45</v>
@@ -8567,16 +8579,16 @@
         <v>488</v>
       </c>
       <c r="C147" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="G147" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="H147" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I147" s="1">
         <v>45</v>
@@ -8611,16 +8623,16 @@
         <v>490</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="G148" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="H148" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I148" s="1">
         <v>45</v>
@@ -8655,16 +8667,16 @@
         <v>499</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="G149" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="H149" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I149" s="1">
         <v>45</v>
@@ -8699,16 +8711,16 @@
         <v>501</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="G150" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G150" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="H150" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I150" s="1">
         <v>45</v>
@@ -8743,16 +8755,16 @@
         <v>502</v>
       </c>
       <c r="C151" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="G151" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="H151" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I151" s="1">
         <v>45</v>
@@ -8787,16 +8799,16 @@
         <v>505</v>
       </c>
       <c r="C152" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="G152" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="H152" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I152" s="1">
         <v>45</v>
@@ -8831,16 +8843,16 @@
         <v>506</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="G153" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G153" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="H153" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I153" s="1">
         <v>45</v>
@@ -8875,16 +8887,16 @@
         <v>507</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="G154" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="H154" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I154" s="1">
         <v>45</v>
@@ -8919,16 +8931,16 @@
         <v>508</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="G155" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="H155" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I155" s="1">
         <v>45</v>
@@ -8963,16 +8975,16 @@
         <v>515</v>
       </c>
       <c r="C156" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="G156" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="H156" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I156" s="1">
         <v>45</v>
@@ -9007,16 +9019,16 @@
         <v>518</v>
       </c>
       <c r="C157" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="G157" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I157" s="1">
         <v>45</v>
@@ -9051,16 +9063,16 @@
         <v>519</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="G158" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="H158" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I158" s="1">
         <v>45</v>
@@ -9095,16 +9107,16 @@
         <v>535</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="G159" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="H159" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I159" s="1">
         <v>45</v>
@@ -9139,16 +9151,16 @@
         <v>536</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="G160" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="H160" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I160" s="1">
         <v>45</v>
@@ -9183,16 +9195,16 @@
         <v>538</v>
       </c>
       <c r="C161" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="G161" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="H161" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I161" s="1">
         <v>45</v>
@@ -9227,16 +9239,16 @@
         <v>541</v>
       </c>
       <c r="C162" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="G162" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="H162" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I162" s="1">
         <v>45</v>
@@ -9271,16 +9283,16 @@
         <v>542</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="G163" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="H163" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I163" s="1">
         <v>45</v>
@@ -9315,16 +9327,16 @@
         <v>554</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="G164" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="H164" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I164" s="1">
         <v>45</v>
@@ -9359,16 +9371,16 @@
         <v>555</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="G165" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="H165" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I165" s="1">
         <v>45</v>
@@ -9403,16 +9415,16 @@
         <v>556</v>
       </c>
       <c r="C166" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="G166" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I166" s="1">
         <v>45</v>
@@ -9447,16 +9459,16 @@
         <v>560</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="G167" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="H167" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I167" s="1">
         <v>45</v>
@@ -9491,16 +9503,16 @@
         <v>561</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="G168" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="H168" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I168" s="1">
         <v>45</v>
@@ -9535,16 +9547,16 @@
         <v>563</v>
       </c>
       <c r="C169" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="G169" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="H169" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I169" s="1">
         <v>45</v>
@@ -9579,16 +9591,16 @@
         <v>564</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="G170" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="H170" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I170" s="1">
         <v>45</v>
@@ -9623,16 +9635,16 @@
         <v>566</v>
       </c>
       <c r="C171" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="G171" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I171" s="1">
         <v>45</v>
@@ -9667,16 +9679,16 @@
         <v>569</v>
       </c>
       <c r="C172" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="G172" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="H172" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I172" s="1">
         <v>45</v>
@@ -9711,16 +9723,16 @@
         <v>570</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="H173" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I173" s="1">
         <v>45</v>
@@ -9755,16 +9767,16 @@
         <v>571</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I174" s="1">
         <v>45</v>
@@ -9799,16 +9811,16 @@
         <v>572</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I175" s="1">
         <v>45</v>
@@ -9843,16 +9855,16 @@
         <v>579</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I176" s="1">
         <v>45</v>
@@ -9887,16 +9899,16 @@
         <v>584</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I177" s="1">
         <v>45</v>
@@ -9931,16 +9943,16 @@
         <v>585</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I178" s="1">
         <v>45</v>
@@ -9975,16 +9987,16 @@
         <v>587</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I179" s="1">
         <v>45</v>
@@ -10019,16 +10031,16 @@
         <v>588</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I180" s="1">
         <v>45</v>
@@ -10063,16 +10075,16 @@
         <v>592</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I181" s="1">
         <v>45</v>
@@ -10107,16 +10119,16 @@
         <v>599</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I182" s="1">
         <v>50</v>
@@ -10148,16 +10160,16 @@
         <v>601</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I183" s="1">
         <v>45</v>
@@ -10192,16 +10204,16 @@
         <v>610</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I184" s="1">
         <v>45</v>
@@ -10236,16 +10248,16 @@
         <v>619</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I185" s="1">
         <v>45</v>
@@ -10280,16 +10292,16 @@
         <v>622</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I186" s="1">
         <v>45</v>
